--- a/excels/excel-75_typeStatisticsByPercentageSummarized.csv.xlsx
+++ b/excels/excel-75_typeStatisticsByPercentageSummarized.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72420EE6-081E-4429-91F0-E45E1EBE015F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8624019-F7B4-4F29-9EAA-C1E3CBA9CE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,16 +29,10 @@
     <t>low-Choice</t>
   </si>
   <si>
-    <t>median-Choice</t>
-  </si>
-  <si>
     <t>high-Choice</t>
   </si>
   <si>
     <t>low-Entry</t>
-  </si>
-  <si>
-    <t>median-Entry</t>
   </si>
   <si>
     <t>high-Entry</t>
@@ -47,16 +41,10 @@
     <t>low-Exit</t>
   </si>
   <si>
-    <t>median-Exit</t>
-  </si>
-  <si>
     <t>high-Exit</t>
   </si>
   <si>
     <t>low-Region</t>
-  </si>
-  <si>
-    <t>median-Region</t>
   </si>
   <si>
     <t>high-Region</t>
@@ -65,16 +53,10 @@
     <t>low-State</t>
   </si>
   <si>
-    <t>median-State</t>
-  </si>
-  <si>
     <t>high-State</t>
   </si>
   <si>
     <t>low-Statechart</t>
-  </si>
-  <si>
-    <t>median-Statechart</t>
   </si>
   <si>
     <t>high-Statechart</t>
@@ -83,10 +65,28 @@
     <t>low-Transition</t>
   </si>
   <si>
-    <t>median-Transition</t>
+    <t>high-Transition</t>
   </si>
   <si>
-    <t>high-Transition</t>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Statechart</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Choice</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Choice</c:v>
+                  <c:v>Choice</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1337,7 +1337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Entry</c:v>
+                  <c:v>Entry</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2006,7 +2006,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Exit</c:v>
+                  <c:v>Exit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2675,7 +2675,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Region</c:v>
+                  <c:v>Region</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3344,7 +3344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-State</c:v>
+                  <c:v>State</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4013,7 +4013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Statechart</c:v>
+                  <c:v>Statechart</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4682,7 +4682,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Transition</c:v>
+                  <c:v>Transition</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6049,7 +6049,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$D$1</c15:sqref>
@@ -6090,7 +6090,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -6408,7 +6408,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$D$2:$D$102</c15:sqref>
@@ -6725,7 +6725,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -6738,7 +6738,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$E$1</c15:sqref>
@@ -6779,7 +6779,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -7097,7 +7097,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$E$2:$E$102</c15:sqref>
@@ -7414,7 +7414,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -7427,7 +7427,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$G$1</c15:sqref>
@@ -7468,7 +7468,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -7786,7 +7786,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$G$2:$G$102</c15:sqref>
@@ -8103,7 +8103,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -8116,7 +8116,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$H$1</c15:sqref>
@@ -8163,7 +8163,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -8481,7 +8481,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$H$2:$H$102</c15:sqref>
@@ -8798,7 +8798,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -8811,7 +8811,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$J$1</c15:sqref>
@@ -8858,7 +8858,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -9176,7 +9176,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$J$2:$J$102</c15:sqref>
@@ -9493,7 +9493,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -9506,7 +9506,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$K$1</c15:sqref>
@@ -9553,7 +9553,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -9871,7 +9871,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$K$2:$K$102</c15:sqref>
@@ -10188,7 +10188,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -10201,7 +10201,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$M$1</c15:sqref>
@@ -10248,7 +10248,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -10566,7 +10566,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$M$2:$M$102</c15:sqref>
@@ -10883,7 +10883,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -10896,7 +10896,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$N$1</c15:sqref>
@@ -10946,7 +10946,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -11264,7 +11264,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$N$2:$N$102</c15:sqref>
@@ -11581,7 +11581,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -11594,7 +11594,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$P$1</c15:sqref>
@@ -11644,7 +11644,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -11962,7 +11962,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$P$2:$P$102</c15:sqref>
@@ -12279,7 +12279,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -12292,7 +12292,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$Q$1</c15:sqref>
@@ -12342,7 +12342,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -12660,7 +12660,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$Q$2:$Q$102</c15:sqref>
@@ -12977,7 +12977,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -12990,7 +12990,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$S$1</c15:sqref>
@@ -13040,7 +13040,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -13358,7 +13358,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$S$2:$S$102</c15:sqref>
@@ -13675,7 +13675,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -13688,7 +13688,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$T$1</c15:sqref>
@@ -13735,7 +13735,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -14053,7 +14053,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$T$2:$T$102</c15:sqref>
@@ -14370,7 +14370,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -14383,7 +14383,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$V$1</c15:sqref>
@@ -14430,7 +14430,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -14748,7 +14748,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'75_typeStatisticsByPercentageSu'!$V$2:$V$102</c15:sqref>
@@ -15065,7 +15065,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-00EF-47E2-8772-79D5076BB4AD}"/>
                   </c:ext>
@@ -15097,6 +15097,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>lebontás százalékos aránya</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15119,7 +15174,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15160,6 +15215,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>típus százalékos aránya</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15182,7 +15292,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15224,7 +15334,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -15839,7 +15949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15850,7 +15960,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -16178,8 +16288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="F81" workbookViewId="0">
-      <selection sqref="A1:V102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16192,64 +16302,64 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
       <c r="U1" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
